--- a/medicine/Hématologie/Thromboplastine/Thromboplastine.xlsx
+++ b/medicine/Hématologie/Thromboplastine/Thromboplastine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La thromboplastine est un facteur de coagulation, désigné par le chiffre romain III (facteur III), nécessaire à l'activation de la voie extrinsèque de la coagulation.
 La thromboplastine active le facteur VII en présence de calcium (facteur IV) pour aboutir au facteur VII activé (VIIa) capable d'activer le facteur X. Ceci constitue l'étape qui initie la formation de prothrombinase qui donne la thrombine, elle-même transforme le fibrinogène en fibrine qui est nécessaire à la stabilisation du clou plaquettaire formé initialement par l'hémostase primaire. Ainsi, la thromboplastine, en étant un facteur tissulaire, est déterminante en cas de lésion tissulaire pour déclencher cette cascade de réactions visant à mettre fin au saignement.
